--- a/kit kat.xlsx
+++ b/kit kat.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INSPER\3 sem\ciência dos dados\c_dados_2021.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C67FF7D-582C-404D-8B2C-B737CE87A396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1595,12 +1601,24 @@
   <si>
     <t>tá cara legal, ninguém liga se você vai comer um kit kat</t>
   </si>
+  <si>
+    <t>bom ou n</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>indiferente</t>
+  </si>
+  <si>
+    <t>ruim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1663,6 +1681,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1709,7 +1735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1741,9 +1767,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1775,6 +1819,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1950,1514 +2012,1531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -3468,899 +3547,902 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A178"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>478</v>
       </c>

--- a/kit kat.xlsx
+++ b/kit kat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INSPER\3 sem\ciência dos dados\c_dados_2021.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\c_dados_2021.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C67FF7D-582C-404D-8B2C-B737CE87A396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B75558-6F2F-4356-A90E-4B21F1ECA06D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
     <t>Treinamento</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>rt @geovanaszx: vontade de um açaí c kit kat, aff</t>
-  </si>
-  <si>
-    <t>bom dia galerinha 
-venham conhecer o ovo de 500g.
-gente é muuuuuito chocolate 😱
-sabores: kit kat, raffaello, ferrero, ninho com nutella e muito mais
-valor: r$ 58,00
-chamem no whatsapp ou dm: 2199336-4029 💟
-#pascoa #ovodecolher #riodejaneiro https://t.co/prwqwlfslw</t>
   </si>
   <si>
     <t>se deus nao existe quem colocou esses kit kat da americanas no meu bolso</t>
@@ -125,9 +116,6 @@
     <t>@bfrcarou eu gostava do de kit kat</t>
   </si>
   <si>
-    <t>rt @jhcordeiro: brasil, 2018 e 2022 https://t.co/gcds2njfkv</t>
-  </si>
-  <si>
     <t>@rhyzek kit kat/cat sla alguma coisa assim</t>
   </si>
   <si>
@@ -151,10 +139,6 @@
     <t>meus olhinhos brilharam quando entrei na americanas e vi 6 kit kat por 10 reais 😬😬</t>
   </si>
   <si>
-    <t>a série brilliant live adventures de #davidbowie chega ao fim! o ciclo, disponível no dia 2 de abril em cd e vinil, encerra com um show de 1999 no kit kat klub. saiba mais: #rollingstone15anos
-https://t.co/rd36ejn0t4</t>
-  </si>
-  <si>
     <t>eita aqui em casa ficou cheio de doce minha mãe fez doce bolo com recheio de paçoca eu comprei kit kat rai trouxe sorvete e duas caixas de bombons eita lenha 😮</t>
   </si>
   <si>
@@ -189,9 +173,6 @@
     <t>kit kat de limão,conte comigo pra tudo ❤️só falta achar o bis d limão.amo mto</t>
   </si>
   <si>
-    <t>@glaucus121 ok usei a palavra errada mas okay</t>
-  </si>
-  <si>
     <t>@branknhavirtual kit kat é o puro vômito de gato</t>
   </si>
   <si>
@@ -209,9 +190,6 @@
   </si>
   <si>
     <t>treinei com todo o ódio do mundo e agora tô comendo kit kat com nutella... obrigada, tpm :)</t>
-  </si>
-  <si>
-    <t>@irl_yu quero 01 foto do pezinho na dm e 02 kit kat brigada limda😻</t>
   </si>
   <si>
     <t>@kit_kat_off jamais, apenas por amor 😳🍂😍</t>
@@ -273,12 +251,6 @@
     <t>kit kat é o melhor chocolate de sempre fds</t>
   </si>
   <si>
-    <t>olha que composição maravilhosa desses minis ovos de páscoa de kit kat mas oreo. 🤤🍫
--
-peça logo o seu 71 981054795
-#emcasa #peçajá #minisovosdepascoa #deliciasdasuly #salvador em salvador, bahia, brazil https://t.co/fgibps2xib</t>
-  </si>
-  <si>
     <t>tudo que eu queria era comer um kit kat</t>
   </si>
   <si>
@@ -295,9 +267,6 @@
   </si>
   <si>
     <t>eu nunca me segurei tanto pra rir do lado da minha mãe https://t.co/cbhem7xnkz</t>
-  </si>
-  <si>
-    <t>era só virar um soco :) https://t.co/2osdtlfgqh</t>
   </si>
   <si>
     <t>@leticiarosaff pelo menos vc pegou!!!</t>
@@ -313,19 +282,10 @@
     <t>@marhelo_ ou, já ouvi falaram que eu pareço com ele vc acha?</t>
   </si>
   <si>
-    <t>🐰 coelhinho kit kat
-💸 r$ 3,90 ⭐️ 4/5
-📜 a kit kat (@kitkatbrasil) lançou esse ano uma versão de coelhinho de chocolate pra páscoa e nós compramos pra experimentar.
-cada pacotinho de 29g vem com um chocolate em formato de coelho com recheio de creme de chocolate com flocos de a https://t.co/imt3hncdjv</t>
-  </si>
-  <si>
     <t>@vlucasrocha @alvesluc_as taí uma coisa que ele não prometeu...</t>
   </si>
   <si>
     <t>hoje decidi que quero o sabado de aleluia logo e que quero comer bolo de kit kat no domingo pra celebrar com jesus, é isso</t>
-  </si>
-  <si>
-    <t>@kit_kat_off nop, acho que é dia 23</t>
   </si>
   <si>
     <t>shatiadíssimo que o polygon em berlim aparentemente fechou as portas para sempre. só espero que a kit kat, a berghain e a sisyphos consigam permanecer abertas após a pandemia.</t>
@@ -362,10 +322,6 @@
     <t>td dia eu como um bombom ou kit kat pqp, n aguento mais ser viciado</t>
   </si>
   <si>
-    <t>sorvete de açaí com leite ninho, leite condensado, nutella, mm's, kit kat, oreo
-ah, e uma banana, pra ficar saudável https://t.co/tkj2bzrzp1</t>
-  </si>
-  <si>
     <t>@biaturci @kit_kat_off amiga nem pra educação física eu tive força de vontade pra fazer 🥴🥴</t>
   </si>
   <si>
@@ -410,9 +366,6 @@
     <t>acordei com um pedaço de bolo de brigadeiro com kit kat que minha mãe comprou pra mim 😍</t>
   </si>
   <si>
-    <t>eu e minha mae na hr do almoço falando pro meu pai comprar um chocolatinho pra nois, ok ele foi embora pra trabalhar e do nd chega aqui dnv com 2 kit kat 🤧🤧🤩</t>
-  </si>
-  <si>
     <t>tiveram patrocínios grandes como a jeep, pepsi e agora a kit kat, eles podiam entregar tanto, mas não entregam nem metade! isso é muito bem visto em turn it up by my side e milhares de outros clipes feitos durante a quarentena. só entregaram tudo enquanto estavam em dubai ou nem</t>
   </si>
   <si>
@@ -433,9 +386,6 @@
     <t>kit kat branco é o melhor</t>
   </si>
   <si>
-    <t>crianças choram! https://t.co/tgmhsk2hfy</t>
-  </si>
-  <si>
     <t>coelhinho da kit kat tesão</t>
   </si>
   <si>
@@ -443,19 +393,6 @@
   </si>
   <si>
     <t>@themariafreitas *respirar fundo* seguir a time line e ignorar que essas pessoas existem</t>
-  </si>
-  <si>
-    <t>rt @surtada02847: 🥄🍫 ovo de colher 🥄🍫
-sabores:
-• brigadeiro
-• leite ninho
-• beijinho
-• prestigio
-• disquete
-• paçoca
-• bis
-• kit kat
-• mo…</t>
   </si>
   <si>
     <t>gente hoje eu vou ensinar a fazer um bolo de kit kat, segue o fio:
@@ -526,9 +463,6 @@
     <t>queria um ovo da kit kat é pedir muito?</t>
   </si>
   <si>
-    <t>@thalesvictorsan e eu que agora tenho 3 afilhados 2 ainda não entendi demais pedro sim o bom de pedro que ele me pediu 1 kit kat branco véi kkkkkkkkkkkkkk</t>
-  </si>
-  <si>
     <t>@kit_kat_off como assim invasivo? tu tá só curtindo algo da sua tl, seria invasivo se tu fosse atrás pra ir e curtir</t>
   </si>
   <si>
@@ -610,10 +544,6 @@
   </si>
   <si>
     <t>nmrl pedroza merece um prêmio, pq aguentar ************ e kit kat falando &amp;gt;&amp;gt;ao mesmo tempo&amp;lt;&amp;lt; é foda</t>
-  </si>
-  <si>
-    <t>eu pedi pro meu pai apenas um kit kat e uma coca 600ml pq eu ia ver snydercut hj e queria fica comendo algo.
-o meu pai trouxe isso e 2 coca cola 2 litros👍🏻 https://t.co/zfsy1alim2</t>
   </si>
   <si>
     <t>de preferência um kit kat https://t.co/ptw7ear5si</t>
@@ -754,12 +684,6 @@
     <t>meu deus eu amo açaí com kit kat</t>
   </si>
   <si>
-    <t>a pasta de kit kat é maravilhosa, véi. a kit kat arrasou demais. 2kg mais bem pago da vida.</t>
-  </si>
-  <si>
-    <t>essa semana eu devo ter comido uns 20 pacotes de kit kat sem parar, preciso dar um tempo</t>
-  </si>
-  <si>
     <t>eu aqui pensando que se a katy perry tivesse trabalhado peacock, legendary lovers e walking on ar, eu poderia ter sido um grande kit kat.</t>
   </si>
   <si>
@@ -769,9 +693,6 @@
     <t>nada melhor que receber uma visita do seu mozão no trabalho e ainda ganhar kit kat. @nubscampos10, menina linda demais!!! 😍❤️</t>
   </si>
   <si>
-    <t>hoje comi kinder bueno pela primeira vez e entendi porque ele é tão famoso. é o melhor chocolate que eu ja comi em toda minha vida. passou na frente de kit kat, agr ele está em top 2.</t>
-  </si>
-  <si>
     <t>eu ia fazer na semana que começou a pandemia eu juro</t>
   </si>
   <si>
@@ -788,13 +709,6 @@
   </si>
   <si>
     <t>confesso que queria um kit kat</t>
-  </si>
-  <si>
-    <t>rt @vitotya0016: aceitasse encomendas para a páscoa de ovo de colher goomer.
-pequeno 20 
-médio 25
-grande 35 
-recheios de brigadeiro, leit…</t>
   </si>
   <si>
     <t>vou comer cachorro quente e meu bolinho de chocolate com kit kat e leite ninho 😋</t>
@@ -832,12 +746,6 @@
     <t>@travatrovadora eu odeio nutella, kit kat, oreo essas coisas e as vezes quero um docinho e só tem com esses trem no meio</t>
   </si>
   <si>
-    <t>minha prima ganhou um sorteio de ovo de páscoa, acreditando que o ovo seria igual à foto 1. recebeu um ovo igual ao da foto 2, com recheio só até a metade da casca do ovo, sem kit kat, sem brigadeiro. rsrs... a cavalo dado se olha os dentes sim. https://t.co/co4kkjv5ql</t>
-  </si>
-  <si>
-    <t>rt @sccpsuh: e foi assim que o thiago silva ganhou um novo funcionário https://t.co/m2ixcns8yz</t>
-  </si>
-  <si>
     <t>gnt julia come o kit kat do jeito errado, devo dar block???</t>
   </si>
   <si>
@@ -869,11 +777,6 @@
     <t>eu e minha mãe falando da bagunça dos quartos</t>
   </si>
   <si>
-    <t>e eu que fui comprar kit kat no site da kit kat chocolatory e o frete deu 42 reais!!! minhas compras tinha dado 68 reais + 42 reais de frete = 104
-me respeita ne @kitkatbrasil 
-🤡🤡🤡🤡 https://t.co/podk9jmkxq</t>
-  </si>
-  <si>
     <t>@jndj0 @markidsp @loiolatinha blz mestre</t>
   </si>
   <si>
@@ -953,9 +856,6 @@
   </si>
   <si>
     <t>@biaturci @helna_diniz sim que odiooo</t>
-  </si>
-  <si>
-    <t>@crfanni @kit_kat_s2 @equitor_boquilh gosto de mulher 👉❤️👈</t>
   </si>
   <si>
     <t>nossa kit kat com sorvete e muito gostoso .</t>
@@ -1602,16 +1502,104 @@
     <t>tá cara legal, ninguém liga se você vai comer um kit kat</t>
   </si>
   <si>
-    <t>bom ou n</t>
-  </si>
-  <si>
-    <t>bom</t>
-  </si>
-  <si>
-    <t>indiferente</t>
-  </si>
-  <si>
-    <t>ruim</t>
+    <t>bom dia galerinha 
+venham conhecer o ovo de 500g.
+gente é muuuuuito chocolate 😱
+sabores: kit kat, raffaello, ferrero, ninho com nutella e muito mais
+valor: r$ 58,00
+chamem no whatsapp ou dm: 0199336-4009 💟
+#pascoa #ovodecolher #riodejaneiro https://t.co/prwqwlfslw</t>
+  </si>
+  <si>
+    <t>rt @jhcordeiro: brasil, 0018 e 0000 https://t.co/gcds0njfkv</t>
+  </si>
+  <si>
+    <t>a série brilliant live adventures de #davidbowie chega ao fim! o ciclo, disponível no dia 0 de abril em cd e vinil, encerra com um show de 1999 no kit kat klub. saiba mais: #rollingstone15anos
+https://t.co/rd36ejn0t4</t>
+  </si>
+  <si>
+    <t>@glaucus101 ok usei a palavra errada mas okay</t>
+  </si>
+  <si>
+    <t>@irl_yu quero 01 foto do pezinho na dm e 00 kit kat brigada limda😻</t>
+  </si>
+  <si>
+    <t>olha que composição maravilhosa desses minis ovos de páscoa de kit kat mas oreo. 🤤🍫
+-
+peça logo o seu 71 981054795
+#emcasa #peçajá #minisovosdepascoa #deliciasdasuly #salvador em salvador, bahia, brazil https://t.co/fgibps0xib</t>
+  </si>
+  <si>
+    <t>era só virar um soco :) https://t.co/0osdtlfgqh</t>
+  </si>
+  <si>
+    <t>🐰 coelhinho kit kat
+💸 r$ 3,90 ⭐️ 4/5
+📜 a kit kat (@kitkatbrasil) lançou esse ano uma versão de coelhinho de chocolate pra páscoa e nós compramos pra experimentar.
+cada pacotinho de 09g vem com um chocolate em formato de coelho com recheio de creme de chocolate com flocos de a https://t.co/imt3hncdjv</t>
+  </si>
+  <si>
+    <t>@kit_kat_off nop, acho que é dia 03</t>
+  </si>
+  <si>
+    <t>sorvete de açaí com leite ninho, leite condensado, nutella, mm's, kit kat, oreo
+ah, e uma banana, pra ficar saudável https://t.co/tkj0bzrzp1</t>
+  </si>
+  <si>
+    <t>eu e minha mae na hr do almoço falando pro meu pai comprar um chocolatinho pra nois, ok ele foi embora pra trabalhar e do nd chega aqui dnv com 0 kit kat 🤧🤧🤩</t>
+  </si>
+  <si>
+    <t>crianças choram! https://t.co/tgmhsk0hfy</t>
+  </si>
+  <si>
+    <t>rt @surtada00847: 🥄🍫 ovo de colher 🥄🍫
+sabores:
+• brigadeiro
+• leite ninho
+• beijinho
+• prestigio
+• disquete
+• paçoca
+• bis
+• kit kat
+• mo…</t>
+  </si>
+  <si>
+    <t>@thalesvictorsan e eu que agora tenho 3 afilhados 0 ainda não entendi demais pedro sim o bom de pedro que ele me pediu 1 kit kat branco véi kkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>eu pedi pro meu pai apenas um kit kat e uma coca 600ml pq eu ia ver snydercut hj e queria fica comendo algo.
+o meu pai trouxe isso e 0 coca cola 0 litros👍🏻 https://t.co/zfsy1alim0</t>
+  </si>
+  <si>
+    <t>a pasta de kit kat é maravilhosa, véi. a kit kat arrasou demais. 0kg mais bem pago da vida.</t>
+  </si>
+  <si>
+    <t>essa semana eu devo ter comido uns 00 pacotes de kit kat sem parar, preciso dar um tempo</t>
+  </si>
+  <si>
+    <t>hoje comi kinder bueno pela primeira vez e entendi porque ele é tão famoso. é o melhor chocolate que eu ja comi em toda minha vida. passou na frente de kit kat, agr ele está em top 0.</t>
+  </si>
+  <si>
+    <t>rt @vitotya0016: aceitasse encomendas para a páscoa de ovo de colher goomer.
+pequeno 00 
+médio 05
+grande 35 
+recheios de brigadeiro, leit…</t>
+  </si>
+  <si>
+    <t>minha prima ganhou um sorteio de ovo de páscoa, acreditando que o ovo seria igual à foto 1. recebeu um ovo igual ao da foto 0, com recheio só até a metade da casca do ovo, sem kit kat, sem brigadeiro. rsrs... a cavalo dado se olha os dentes sim. https://t.co/co4kkjv5ql</t>
+  </si>
+  <si>
+    <t>rt @sccpsuh: e foi assim que o thiago silva ganhou um novo funcionário https://t.co/m0ixcns8yz</t>
+  </si>
+  <si>
+    <t>e eu que fui comprar kit kat no site da kit kat chocolatory e o frete deu 40 reais!!! minhas compras tinha dado 68 reais + 40 reais de frete = 104
+me respeita ne @kitkatbrasil 
+🤡🤡🤡🤡 https://t.co/podk9jmkxq</t>
+  </si>
+  <si>
+    <t>@crfanni @kit_kat_s0 @equitor_boquilh gosto de mulher 👉❤️👈</t>
   </si>
 </sst>
 </file>
@@ -1670,10 +1658,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,7 +1684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2015,1534 +2006,1883 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>457</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>459</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>460</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>462</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>464</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>466</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3550,901 +3890,901 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/kit kat.xlsx
+++ b/kit kat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INSPER\3 sem\ciência dos dados\c_dados_2021.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C67FF7D-582C-404D-8B2C-B737CE87A396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A73439-F275-424B-BE1A-61D4C8FF5D1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lucas Kang</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{69AF401B-F144-474E-871D-6487AE9276FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lucas Kang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - irrelevante
+1 - relevante
+2 - indiferente
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1016,9 +1053,6 @@
 99 reais o chocolate (🤡) e minha cara  tentando cancelar compra por email depois de ver o valor de 135 estalecas pelo frete sabendo que eles não deixaram isso claro antes da compra: https://t.co/everznihri</t>
   </si>
   <si>
-    <t>@123luigig @lilyandgia kit kat é mt bom</t>
-  </si>
-  <si>
     <t>kit kat de morango e de limão são tudo pra mim 🥺🤤</t>
   </si>
   <si>
@@ -1040,9 +1074,6 @@
     <t>@liviabarroos fala dela só escuto o grito dela por causa do kit kat</t>
   </si>
   <si>
-    <t>a professora disse que quem ligar a camera ganha um kit kat https://t.co/a2ywkrlzx7</t>
-  </si>
-  <si>
     <t>eu esperei tanto pela páscoa, ela finalmente tá chegando e eu não vou ter dinheiro nem pra comprar um kit kat kkkkkkkk</t>
   </si>
   <si>
@@ -1064,14 +1095,7 @@
     <t>@kit_kat_off como assim invasivo eu chamo desconhecidos de amor da minha vida nesse site</t>
   </si>
   <si>
-    <t>eu sou um kit kat. https://t.co/fdoueh24nu</t>
-  </si>
-  <si>
     <t>@_souzzaav aaah vou sim, tô quase indo la para comprar kit kat</t>
-  </si>
-  <si>
-    <t>dos mesmos criadores do pink money com vcs
-discordia money https://t.co/d5kceu24wp</t>
   </si>
   <si>
     <t>@kitkat_wbitch você ne kit kat</t>
@@ -1090,9 +1114,6 @@
 chuva de kinder bueno, kit kat e laka oreo 🤔</t>
   </si>
   <si>
-    <t>rt @mylaura_m: tô vendo aqui no fantástico os robôs da coreia copiando a voz de um artista morto a mais de 20 anos e pensando na quantidade…</t>
-  </si>
-  <si>
     <t>avaliação aqui: comi o kit kat gold e eh mto ruim parece doce furreba. da p comer um pauzinho so e deppis nunca mais. 👍🏻</t>
   </si>
   <si>
@@ -1175,9 +1196,6 @@
     <t>@jvlaruccia mas kit kat é meu favorito :c</t>
   </si>
   <si>
-    <t>@glaucus121 não invasivo, é só chato talvez...</t>
-  </si>
-  <si>
     <t>e ele ainda comprou 6 kit kat pra mim 🤩😢</t>
   </si>
   <si>
@@ -1194,9 +1212,6 @@
   </si>
   <si>
     <t>@marhelo_ certeza que vc só casou comigo por isso né?????</t>
-  </si>
-  <si>
-    <t>@kit_kat_s2 @equitor_boquilh felizmente já sou comprometida ,,, mas pra n perder o embalo eu passo pra minha amiga solteira a @mengwao  😍😍🙏🏻</t>
   </si>
   <si>
     <t>temos algumas questões aq:
@@ -1206,9 +1221,6 @@
 +</t>
   </si>
   <si>
-    <t>rt @ricardopinto20: e o andré que chamou a um conto de ganza um kit kat ahahahahahah</t>
-  </si>
-  <si>
     <t>acai nutella morango e kit kat = sem erro https://t.co/rxhjpzp6dk</t>
   </si>
   <si>
@@ -1230,44 +1242,19 @@
     <t>vou comer um kit kat agora pra fechar a noite</t>
   </si>
   <si>
-    <t>descrição da cesta 
-mini nutella 140g
-1 barra de laka
-1 barra garato 
-1 caixa de ferrero rocher 100g
-2 pacotes de m&amp;amp;m 45g
-2 barra de kit kat
-2 pacote de amendoim bibs 
-1 ovo 350g com ouro branco 
-1 pacote de skittles 
-1 bebida alpino 
-1 caixa de bis 
-continua!!!</t>
-  </si>
-  <si>
     <t>minha vida foi uma mentira pq eu sempre falei kit vs kat https://t.co/qhwd7pmotm</t>
   </si>
   <si>
     <t>rt @sunsetjoyner: sacha  https://t.co/x8uprirmyk</t>
   </si>
   <si>
-    <t>@fellipec eu peguei logo no começo da peste.
-quando alguém fala que pegou, tomou e não teve nada grave digo que quando peguei tomei 2 copos de coca cola e 1 kit kat por dia e tb não tive nada grave.</t>
-  </si>
-  <si>
     <t>era só uns 10 kit kat, alguns finis e uma caixinha bis, pra curar minha tristeza da tpm😞</t>
   </si>
   <si>
-    <t>@harrylipstyles compra o do kit kat é mais barato e kinder ovo vc pode comer o comum em qualquer época do ano 2 do kit kat é o preço de 1 do kinder ovo</t>
-  </si>
-  <si>
     <t>caroline sabia sobre o vampirismo tanto que perguntava a ele ,mas qdo viu a face se assustou logo até ali  ela não estava hipnotizada  e se tirar o medo dela ao se assustar com a face  dele é  estupro , podemos dizer que todos são estupradores assim como a kit kat.</t>
   </si>
   <si>
     <t>@gusbarcelos @sejehomi @kitkatbrasil alô @kitkatbrasil, apoie a história desse casal lindo que ama kit kat. minha namorada e eu também amamos, mas não vou roubar esse momento do casal.</t>
-  </si>
-  <si>
-    <t>coisas que compraria facilmente: pasta cremosa de kit kat de 2,1 kg</t>
   </si>
   <si>
     <t>dessa vez eu fiz a rematricula okay</t>
@@ -1307,9 +1294,6 @@
   <si>
     <t>“ate onde vc iria por ele?”
 eu daria um pedaço de kit kat😔 https://t.co/rg6d5o49px</t>
-  </si>
-  <si>
-    <t>rt @eujojocy: @thalitacamila2 @cenastvd como a kit kat diz tudo bem amar os dois hehehe 🤣🤣🤣🤣</t>
   </si>
   <si>
     <t>@tetenc555 esse kit kat já estragou
@@ -1406,10 +1390,6 @@
     <t>comecei pelo de kit kat branco. recomendo.</t>
   </si>
   <si>
-    <t>rt @patyths2: rifa de uma maravilhosa cesta de chocolate🍫😋🐰
-não vai ficar de fora dessa né? são 35 itens de qualidade como nutella, ferrer…</t>
-  </si>
-  <si>
     <t>já dei uma geral em casa., janelas abertas pra entrar o sol e o vento., tenho almoço pronto., vou por creme no cabelo e pintar as unhas., já falei com minha mãe ao telefone, tenho vinho na geladeira, fandangus e 4 kit kat.
 #paentreospovos 🥰🥰🥰</t>
   </si>
@@ -1421,204 +1401,264 @@
     <t>tô feliz que hoje comprei um dos meus ovos de páscoa 🥰🥰 e digo assim porque ainda vai ter outro que tô pensando qual vai ser 😆 mas o kit kat é sempre de lei ❤ https://t.co/oayqbe0ohk</t>
   </si>
   <si>
+    <t>@louieplacex @zainscsy kit kat cobiçada</t>
+  </si>
+  <si>
+    <t>apaga isso pelo amor de deus as academias estao fechadas eu choro todo dia comendo kit kat https://t.co/mkt9m8y5gw</t>
+  </si>
+  <si>
+    <t>bis extra é melhor que kit kat, mas vcs não estão pronto pra isso, me patrocina lacta</t>
+  </si>
+  <si>
+    <t>5 reais um kit kat no hospital</t>
+  </si>
+  <si>
+    <t>kit kat dark é simplesmente um dos  melhores chocolate q existe</t>
+  </si>
+  <si>
+    <t>@horansmiles @kit_kat_off participa pra mim amg
+harry styles</t>
+  </si>
+  <si>
+    <t>tenho q parar de comer kit kat q isso</t>
+  </si>
+  <si>
+    <t>e o andré que chamou a um conto de ganza um kit kat ahahahahahah</t>
+  </si>
+  <si>
+    <t>comendo meu kit kat que comprei de 2 reais</t>
+  </si>
+  <si>
+    <t>@7days_ana sim espiã vibes</t>
+  </si>
+  <si>
+    <t>se eu tiver uma amizade igual grace and frankie na velhice eu morro feliz</t>
+  </si>
+  <si>
+    <t>doida por um açaí com kit kat da praça</t>
+  </si>
+  <si>
+    <t>sinto como se 60% do meu ser fosse composto de açúcar após eu comer brigadeiro de ninho com pedaços de kit kat</t>
+  </si>
+  <si>
+    <t>japa me mina muito. é kit kat, bolo de chocolate, kkkkkk... amoo❤️🥰👭</t>
+  </si>
+  <si>
+    <t>@rubenteimas lembro me vagamente de 1 história do kit kat</t>
+  </si>
+  <si>
+    <t>@vantelov3 é metade branco e metade preto de kit kat</t>
+  </si>
+  <si>
+    <t>vou encomendar um ovo de colher p eu comer na páscoa pq se n for eu vai ser quem que vai me presentear com um ovo de colher de kit kat que eu amo</t>
+  </si>
+  <si>
+    <t>agr recebi 50 centavos, se vocês continuarem eu consigo comprar um kit kat https://t.co/dcq3apvceb</t>
+  </si>
+  <si>
+    <t>raine me deu uma caixa de kit kat fiquei feliz hein pqp😗</t>
+  </si>
+  <si>
+    <t>pois queria comprar coisas como kit kat na promoção</t>
+  </si>
+  <si>
+    <t>ganhei muito kit kat tô no céu https://t.co/yfpv0dlnpl</t>
+  </si>
+  <si>
+    <t>rt @rogeriolubk: 'a ameaça do 'comunismo' exerce o mesmo papel do 'homem do saco' para adultos com capacidade cognitiva reduzida'</t>
+  </si>
+  <si>
+    <t>@al_antdp esteve a comer um kit kat 😂</t>
+  </si>
+  <si>
+    <t>@kit_kat_off eu não acho invasivo 😩😩😩😩</t>
+  </si>
+  <si>
+    <t>kit kat é meu favorito msm, tem base não</t>
+  </si>
+  <si>
+    <t>meu anv cai numa quarta do açaí, se ngm me mandar um açaí cheio de nutella e kit kat eu vo ficar putassa</t>
+  </si>
+  <si>
+    <t>queria esses kit kat diferente que eles tão comendo</t>
+  </si>
+  <si>
+    <t>e eu que tenho um bucado de ovo de kit kat pra fazer e to comendo kit kat
+vo ter que compra mais😭</t>
+  </si>
+  <si>
+    <t>meu irmão comeu meu kit kat inferno ele tem uma barra de chocolate inteira pra ele e ele comeu o kitkat q eu comprei pra mim ele foi lá e comeu ele simplesmente foi lá e comeu melhor esse vacilão dormir de olho aberto hoje eu vou mete o tapão nesse otário
+https://t.co/9knpn9oncq</t>
+  </si>
+  <si>
+    <t>kit kat de morango eu te odeio 🤢🤮</t>
+  </si>
+  <si>
+    <t>que fome será que é pq eu só comi uma pera e um kit kat</t>
+  </si>
+  <si>
+    <t>e minha que trouxe nutella b-ready e kit kat de morango pra mim... tô mto mimada, pena que não consigo sentir gosto 😂😂</t>
+  </si>
+  <si>
+    <t>@k3nmavlog so uns kit kat de madrugada, mas e vc ja comeu?</t>
+  </si>
+  <si>
+    <t>era só a taça de kit kat do pastel mania 💔😢</t>
+  </si>
+  <si>
+    <t>que vontade de comer um kit kat https://t.co/ewgsgpupg7</t>
+  </si>
+  <si>
+    <t>@mtshow95 tu gosta né preto kit kat rs</t>
+  </si>
+  <si>
+    <t>@kit_kat_off extremamente necessario</t>
+  </si>
+  <si>
+    <t>o drama de bergsthem - comprou kit kat pra mandar pros cliente mas comeu tudo</t>
+  </si>
+  <si>
+    <t>ganhei 100 reias ontem das atividades que eu fiz, vou comprar kit kat e um fone</t>
+  </si>
+  <si>
+    <t>@louieplacex ela é perfeita kit kat!</t>
+  </si>
+  <si>
+    <t>rt @lolaescreva: gente, vamos espalhar a tag #gravidezforçadaétortura é grave: o pl5434 quer ressuscitar o #bolsaestupro. se uma mulher/men…</t>
+  </si>
+  <si>
+    <t>@leuzxn @happyyouare bis barra é melhor q kit kat</t>
+  </si>
+  <si>
+    <t>acabei de comprar 1 fondue e nao o bastante vou enfiar 2 kit kat nele quando chegar. eu estou mais chocolatra do que o normal, talvez esteja na hora de uma intervenção. meu corpo vai pipocar de espinhas.</t>
+  </si>
+  <si>
+    <t>@kit_kat_off ser chato é uma coisa, só meio incoveniente, invasivo que é problema mesmo</t>
+  </si>
+  <si>
+    <t>comprei um kit kat muito bom pode fazer suas próprias vontades</t>
+  </si>
+  <si>
+    <t>rt @_lonelys0ul: ovo de colher de ninho e ninho com kit kat e nossas deliciosas caixinhas de bombons recheados sortidos https://t.co/y6ub9g…</t>
+  </si>
+  <si>
+    <t>kit kat indo queimar no inferno, q delicia de cena</t>
+  </si>
+  <si>
+    <t>rt @df_porto: seguinte:
+pau no cu dessa matéria do moleque tendo que subir na árvore pra poder ter aula
+pau no cu dessa realidade doente…</t>
+  </si>
+  <si>
+    <t>@thalesvictorsan tá tudo caro e outra abril tá aí e a gente que não se contenta com barra de chocolate e kit kat não por que aqui se eu não comprar concerteza não irei ganhar 😄</t>
+  </si>
+  <si>
+    <t>vontade de comer um kit kat 🥴</t>
+  </si>
+  <si>
+    <t>tá cara legal, ninguém liga se você vai comer um kit kat</t>
+  </si>
+  <si>
+    <t>bom ou n</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>indiferente</t>
+  </si>
+  <si>
+    <t>ruim</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>@103luigig @lilyandgia kit kat é mt bom</t>
+  </si>
+  <si>
+    <t>a professora disse que quem ligar a camera ganha um kit kat https://t.co/a0ywkrlzx7</t>
+  </si>
+  <si>
+    <t>eu sou um kit kat. https://t.co/fdoueh04nu</t>
+  </si>
+  <si>
+    <t>dos mesmos criadores do pink money com vcs
+discordia money https://t.co/d5kceu04wp</t>
+  </si>
+  <si>
+    <t>rt @mylaura_m: tô vendo aqui no fantástico os robôs da coreia copiando a voz de um artista morto a mais de 00 anos e pensando na quantidade…</t>
+  </si>
+  <si>
+    <t>@glaucus101 não invasivo, é só chato talvez...</t>
+  </si>
+  <si>
+    <t>@kit_kat_s0 @equitor_boquilh felizmente já sou comprometida ,,, mas pra n perder o embalo eu passo pra minha amiga solteira a @mengwao  😍😍🙏🏻</t>
+  </si>
+  <si>
+    <t>rt @ricardopinto00: e o andré que chamou a um conto de ganza um kit kat ahahahahahah</t>
+  </si>
+  <si>
+    <t>descrição da cesta 
+mini nutella 140g
+1 barra de laka
+1 barra garato 
+1 caixa de ferrero rocher 100g
+0 pacotes de m&amp;amp;m 45g
+0 barra de kit kat
+0 pacote de amendoim bibs 
+1 ovo 350g com ouro branco 
+1 pacote de skittles 
+1 bebida alpino 
+1 caixa de bis 
+continua!!!</t>
+  </si>
+  <si>
+    <t>@fellipec eu peguei logo no começo da peste.
+quando alguém fala que pegou, tomou e não teve nada grave digo que quando peguei tomei 0 copos de coca cola e 1 kit kat por dia e tb não tive nada grave.</t>
+  </si>
+  <si>
+    <t>@harrylipstyles compra o do kit kat é mais barato e kinder ovo vc pode comer o comum em qualquer época do ano 0 do kit kat é o preço de 1 do kinder ovo</t>
+  </si>
+  <si>
+    <t>coisas que compraria facilmente: pasta cremosa de kit kat de 0,1 kg</t>
+  </si>
+  <si>
+    <t>rt @eujojocy: @thalitacamila0 @cenastvd como a kit kat diz tudo bem amar os dois hehehe 🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>rt @patyths0: rifa de uma maravilhosa cesta de chocolate🍫😋🐰
+não vai ficar de fora dessa né? são 35 itens de qualidade como nutella, ferrer…</t>
+  </si>
+  <si>
     <t>aceitasse encomendas para a páscoa de ovo de colher goomer.
-pequeno 20 
-médio 25
+pequeno 00 
+médio 05
 grande 35 
 recheios de brigadeiro, leite ninho, coco e ovomaltine
 adicionais: kit kat, bombom paçoca e óreo</t>
   </si>
   <si>
-    <t>@louieplacex @zainscsy kit kat cobiçada</t>
-  </si>
-  <si>
-    <t>rt @rollingstonebr: a série brilliant live adventures de #davidbowie chega ao fim! o ciclo, disponível no dia 2 de abril em cd e vinil, enc…</t>
-  </si>
-  <si>
-    <t>apaga isso pelo amor de deus as academias estao fechadas eu choro todo dia comendo kit kat https://t.co/mkt9m8y5gw</t>
-  </si>
-  <si>
-    <t>bis extra é melhor que kit kat, mas vcs não estão pronto pra isso, me patrocina lacta</t>
-  </si>
-  <si>
-    <t>5 reais um kit kat no hospital</t>
-  </si>
-  <si>
-    <t>kit kat dark é simplesmente um dos  melhores chocolate q existe</t>
-  </si>
-  <si>
-    <t>@horansmiles @kit_kat_off participa pra mim amg
-harry styles</t>
-  </si>
-  <si>
-    <t>tenho q parar de comer kit kat q isso</t>
-  </si>
-  <si>
-    <t>e o andré que chamou a um conto de ganza um kit kat ahahahahahah</t>
-  </si>
-  <si>
-    <t>comendo meu kit kat que comprei de 2 reais</t>
-  </si>
-  <si>
-    <t>@7days_ana sim espiã vibes</t>
-  </si>
-  <si>
-    <t>@ruangabrieltyf2 diz a ele que quero kit kat, obgd</t>
-  </si>
-  <si>
-    <t>se eu tiver uma amizade igual grace and frankie na velhice eu morro feliz</t>
-  </si>
-  <si>
-    <t>doida por um açaí com kit kat da praça</t>
-  </si>
-  <si>
-    <t>sinto como se 60% do meu ser fosse composto de açúcar após eu comer brigadeiro de ninho com pedaços de kit kat</t>
-  </si>
-  <si>
-    <t>japa me mina muito. é kit kat, bolo de chocolate, kkkkkk... amoo❤️🥰👭</t>
-  </si>
-  <si>
-    <t>@rubenteimas lembro me vagamente de 1 história do kit kat</t>
-  </si>
-  <si>
-    <t>mudei tudo e a partir de hj eu sou kit kat fodase https://t.co/vfa3l2wp6g</t>
-  </si>
-  <si>
-    <t>@vantelov3 é metade branco e metade preto de kit kat</t>
-  </si>
-  <si>
-    <t>vou encomendar um ovo de colher p eu comer na páscoa pq se n for eu vai ser quem que vai me presentear com um ovo de colher de kit kat que eu amo</t>
-  </si>
-  <si>
-    <t>agr recebi 50 centavos, se vocês continuarem eu consigo comprar um kit kat https://t.co/dcq3apvceb</t>
-  </si>
-  <si>
-    <t>raine me deu uma caixa de kit kat fiquei feliz hein pqp😗</t>
-  </si>
-  <si>
-    <t>pois queria comprar coisas como kit kat na promoção</t>
-  </si>
-  <si>
-    <t>ganhei muito kit kat tô no céu https://t.co/yfpv0dlnpl</t>
-  </si>
-  <si>
-    <t>rt @rogeriolubk: 'a ameaça do 'comunismo' exerce o mesmo papel do 'homem do saco' para adultos com capacidade cognitiva reduzida'</t>
-  </si>
-  <si>
-    <t>@al_antdp esteve a comer um kit kat 😂</t>
-  </si>
-  <si>
-    <t>@kit_kat_off eu não acho invasivo 😩😩😩😩</t>
-  </si>
-  <si>
-    <t>kit kat é meu favorito msm, tem base não</t>
-  </si>
-  <si>
-    <t>meu anv cai numa quarta do açaí, se ngm me mandar um açaí cheio de nutella e kit kat eu vo ficar putassa</t>
-  </si>
-  <si>
-    <t>queria esses kit kat diferente que eles tão comendo</t>
-  </si>
-  <si>
-    <t>e eu que tenho um bucado de ovo de kit kat pra fazer e to comendo kit kat
-vo ter que compra mais😭</t>
-  </si>
-  <si>
-    <t>meu irmão comeu meu kit kat inferno ele tem uma barra de chocolate inteira pra ele e ele comeu o kitkat q eu comprei pra mim ele foi lá e comeu ele simplesmente foi lá e comeu melhor esse vacilão dormir de olho aberto hoje eu vou mete o tapão nesse otário
-https://t.co/9knpn9oncq</t>
-  </si>
-  <si>
-    <t>kit kat de morango eu te odeio 🤢🤮</t>
-  </si>
-  <si>
-    <t>que fome será que é pq eu só comi uma pera e um kit kat</t>
-  </si>
-  <si>
-    <t>e minha que trouxe nutella b-ready e kit kat de morango pra mim... tô mto mimada, pena que não consigo sentir gosto 😂😂</t>
-  </si>
-  <si>
-    <t>@k3nmavlog so uns kit kat de madrugada, mas e vc ja comeu?</t>
-  </si>
-  <si>
-    <t>era só a taça de kit kat do pastel mania 💔😢</t>
-  </si>
-  <si>
-    <t>que vontade de comer um kit kat https://t.co/ewgsgpupg7</t>
-  </si>
-  <si>
-    <t>@glaucus121 make sense! mas a pessoa marca uma, e vira uma conversa das duas sabe, aí quando tão falando de algo muito pessoal ali só por preguiça de ir pra dm não sei...</t>
-  </si>
-  <si>
-    <t>@bebel1912 a maria come tudo, inclusive kit kat ela adora 🤣🤣🤣🤣🤣</t>
-  </si>
-  <si>
-    <t>@mtshow95 tu gosta né preto kit kat rs</t>
-  </si>
-  <si>
-    <t>@kit_kat_off extremamente necessario</t>
-  </si>
-  <si>
-    <t>o drama de bergsthem - comprou kit kat pra mandar pros cliente mas comeu tudo</t>
-  </si>
-  <si>
-    <t>ganhei 100 reias ontem das atividades que eu fiz, vou comprar kit kat e um fone</t>
-  </si>
-  <si>
-    <t>@louieplacex ela é perfeita kit kat!</t>
-  </si>
-  <si>
-    <t>rt @lolaescreva: gente, vamos espalhar a tag #gravidezforçadaétortura é grave: o pl5434 quer ressuscitar o #bolsaestupro. se uma mulher/men…</t>
-  </si>
-  <si>
-    <t>@leuzxn @happyyouare bis barra é melhor q kit kat</t>
-  </si>
-  <si>
-    <t>acabei de comprar 1 fondue e nao o bastante vou enfiar 2 kit kat nele quando chegar. eu estou mais chocolatra do que o normal, talvez esteja na hora de uma intervenção. meu corpo vai pipocar de espinhas.</t>
-  </si>
-  <si>
-    <t>@kit_kat_off ser chato é uma coisa, só meio incoveniente, invasivo que é problema mesmo</t>
-  </si>
-  <si>
-    <t>comprei um kit kat muito bom pode fazer suas próprias vontades</t>
-  </si>
-  <si>
-    <t>rt @_lonelys0ul: ovo de colher de ninho e ninho com kit kat e nossas deliciosas caixinhas de bombons recheados sortidos https://t.co/y6ub9g…</t>
-  </si>
-  <si>
-    <t>kit kat indo queimar no inferno, q delicia de cena</t>
-  </si>
-  <si>
-    <t>rt @df_porto: seguinte:
-pau no cu dessa matéria do moleque tendo que subir na árvore pra poder ter aula
-pau no cu dessa realidade doente…</t>
-  </si>
-  <si>
-    <t>@thalesvictorsan tá tudo caro e outra abril tá aí e a gente que não se contenta com barra de chocolate e kit kat não por que aqui se eu não comprar concerteza não irei ganhar 😄</t>
-  </si>
-  <si>
-    <t>vontade de comer um kit kat 🥴</t>
-  </si>
-  <si>
-    <t>tá cara legal, ninguém liga se você vai comer um kit kat</t>
-  </si>
-  <si>
-    <t>bom ou n</t>
-  </si>
-  <si>
-    <t>bom</t>
-  </si>
-  <si>
-    <t>indiferente</t>
-  </si>
-  <si>
-    <t>ruim</t>
+    <t>rt @rollingstonebr: a série brilliant live adventures de #davidbowie chega ao fim! o ciclo, disponível no dia 0 de abril em cd e vinil, enc…</t>
+  </si>
+  <si>
+    <t>@ruangabrieltyf0 diz a ele que quero kit kat, obgd</t>
+  </si>
+  <si>
+    <t>mudei tudo e a partir de hj eu sou kit kat fodase https://t.co/vfa3l0wp6g</t>
+  </si>
+  <si>
+    <t>@glaucus101 make sense! mas a pessoa marca uma, e vira uma conversa das duas sabe, aí quando tão falando de algo muito pessoal ali só por preguiça de ir pra dm não sei...</t>
+  </si>
+  <si>
+    <t>@bebel1910 a maria come tudo, inclusive kit kat ela adora 🤣🤣🤣🤣🤣</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1633,6 +1673,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1670,10 +1723,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2015,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A274" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2029,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3547,907 +3603,1444 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>469</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>471</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>474</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>475</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>476</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>479</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>480</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>481</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>482</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>483</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>478</v>
+      <c r="B178">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>